--- a/endometriosis.xlsx
+++ b/endometriosis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="152">
   <si>
     <t>TF-IDF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,23 +149,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>expression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagnosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgfβ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>associated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>among</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parietoplasty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oescs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physiotherapy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobiluncus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brasil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursemidwives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filtered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akhtar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pregnancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd11b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025kgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completenessrelated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>endometrial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cells</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lesions</t>
+    <t>SG(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBOW(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBOW(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,39 +301,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporductive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>american</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infertility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagnosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagnostic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insemination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adolescents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menstruation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>endometriotic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SG(diff1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBOW(diff1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hormonal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>associated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>made</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptoms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathogensis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflammatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG(diff1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBOW(diff1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>associated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>diagnosis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conclusions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgfβ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>associated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>among</t>
+    <t>tissue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,83 +504,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clinical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>related</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parietoplasty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oescs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physiotherapy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobiluncus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brasil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nursemidwives</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filtered</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akhtar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pregnancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd11b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025kgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>completenessrelated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stimulatory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pain</t>
+    <t>surgical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infertility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investigations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgeri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pelvic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagnosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macrophagecolonystimulating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2578a</t>
+  </si>
+  <si>
+    <t>normoxia</t>
+  </si>
+  <si>
+    <t>prevented</t>
+  </si>
+  <si>
+    <t>u5bc4v4</t>
+  </si>
+  <si>
+    <t>lhrhagonist</t>
+  </si>
+  <si>
+    <t>nfs</t>
+  </si>
+  <si>
+    <t>htlv</t>
+  </si>
+  <si>
+    <t>inguinale</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>kir2ds5positive</t>
+  </si>
+  <si>
+    <t>snapshot</t>
+  </si>
+  <si>
+    <t>realizó</t>
+  </si>
+  <si>
+    <t>patient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子宮內膜異位症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卵巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子宮內膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外科手術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細胞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>診斷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infertility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,8 +632,34 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +774,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -438,68 +789,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,47 +1198,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -859,328 +1271,721 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="H10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="L12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>68</v>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F21" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
+      <c r="G21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
